--- a/doc/alice/教练财务/2018年5月训练营业绩清单 - 副本.xlsx
+++ b/doc/alice/教练财务/2018年5月训练营业绩清单 - 副本.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23655" windowHeight="10830"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23655" windowHeight="10830"/>
   </bookViews>
   <sheets>
     <sheet name="大热俱乐部" sheetId="11" r:id="rId1"/>
@@ -12,15 +12,15 @@
     <sheet name="FIT训练营" sheetId="12" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'AKcross训练营（28）'!$A$2:$H$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">大热俱乐部!$A$1:$M$55</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'AKcross训练营（28）'!$A$2:$H$33</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="129">
   <si>
     <t>教练姓名</t>
   </si>
@@ -921,15 +921,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="2">
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1036,350 +1032,27 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="9" tint="-0.25"/>
+      <color theme="9" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="37">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1757,251 +1430,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2021,17 +1452,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2042,343 +1464,305 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2669,17 +2053,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
@@ -2687,1393 +2070,1393 @@
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="5.4" customWidth="1"/>
+    <col min="4" max="4" width="5.375" customWidth="1"/>
     <col min="5" max="5" width="64.625" customWidth="1"/>
     <col min="6" max="6" width="7.375" customWidth="1"/>
-    <col min="7" max="7" width="8" style="52" customWidth="1"/>
+    <col min="7" max="7" width="8" style="44" customWidth="1"/>
     <col min="8" max="8" width="28.5" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="15.4" customWidth="1"/>
-    <col min="11" max="11" width="11.8666666666667"/>
-    <col min="12" max="12" width="10.4"/>
-    <col min="13" max="13" width="10.4666666666667" customWidth="1"/>
-    <col min="14" max="14" width="10.6" customWidth="1"/>
+    <col min="10" max="10" width="15.375" customWidth="1"/>
+    <col min="11" max="11" width="11.875"/>
+    <col min="12" max="12" width="10.375"/>
+    <col min="13" max="13" width="10.5" customWidth="1"/>
+    <col min="14" max="14" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="48" customHeight="1" spans="1:13">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="48" customHeight="1">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="103"/>
-      <c r="J1" s="104"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="105"/>
-    </row>
-    <row r="2" s="77" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A2" s="78" t="s">
+      <c r="I1" s="86"/>
+      <c r="J1" s="87"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="88"/>
+    </row>
+    <row r="2" spans="1:13" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="79">
-        <v>43225.6666666667</v>
-      </c>
-      <c r="C2" s="80" t="s">
+      <c r="B2" s="65">
+        <v>43225.666666666701</v>
+      </c>
+      <c r="C2" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="81">
+      <c r="D2" s="67">
         <v>9</v>
       </c>
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="83">
+      <c r="F2" s="69">
         <f>D2*100</f>
         <v>900</v>
       </c>
-      <c r="G2" s="84">
+      <c r="G2" s="70">
         <v>300</v>
       </c>
-      <c r="H2" s="85"/>
-    </row>
-    <row r="3" s="77" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A3" s="78"/>
-      <c r="B3" s="79">
-        <v>43232.6666666667</v>
-      </c>
-      <c r="C3" s="80" t="s">
+      <c r="H2" s="71"/>
+    </row>
+    <row r="3" spans="1:13" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A3" s="93"/>
+      <c r="B3" s="65">
+        <v>43232.666666666701</v>
+      </c>
+      <c r="C3" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="81">
+      <c r="D3" s="67">
         <v>5</v>
       </c>
-      <c r="E3" s="82" t="s">
+      <c r="E3" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="83">
+      <c r="F3" s="69">
         <f>D3*100</f>
         <v>500</v>
       </c>
-      <c r="G3" s="84">
+      <c r="G3" s="70">
         <v>300</v>
       </c>
-      <c r="H3" s="85"/>
-    </row>
-    <row r="4" s="77" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79">
+      <c r="H3" s="71"/>
+    </row>
+    <row r="4" spans="1:13" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A4" s="93"/>
+      <c r="B4" s="65">
         <v>43239.6875</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="81">
+      <c r="D4" s="67">
         <v>4</v>
       </c>
-      <c r="E4" s="82" t="s">
+      <c r="E4" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="83">
+      <c r="F4" s="69">
         <f>D4*100</f>
         <v>400</v>
       </c>
-      <c r="G4" s="84">
+      <c r="G4" s="70">
         <v>300</v>
       </c>
-      <c r="H4" s="85"/>
-    </row>
-    <row r="5" s="77" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A5" s="78"/>
-      <c r="B5" s="79">
+      <c r="H4" s="71"/>
+    </row>
+    <row r="5" spans="1:13" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="93"/>
+      <c r="B5" s="65">
         <v>43246.6875</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="81">
+      <c r="D5" s="67">
         <v>5</v>
       </c>
-      <c r="E5" s="82" t="s">
+      <c r="E5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="83">
+      <c r="F5" s="69">
         <f>D5*100</f>
         <v>500</v>
       </c>
-      <c r="G5" s="84">
+      <c r="G5" s="70">
         <v>300</v>
       </c>
-      <c r="H5" s="85"/>
-    </row>
-    <row r="6" s="77" customFormat="1" ht="34" customHeight="1" spans="1:8">
-      <c r="A6" s="78" t="s">
+      <c r="H5" s="71"/>
+    </row>
+    <row r="6" spans="1:13" s="64" customFormat="1" ht="33.950000000000003" customHeight="1">
+      <c r="A6" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="79">
-        <v>43225.6666666667</v>
-      </c>
-      <c r="C6" s="80" t="s">
+      <c r="B6" s="65">
+        <v>43225.666666666701</v>
+      </c>
+      <c r="C6" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="81">
+      <c r="D6" s="67">
         <v>10</v>
       </c>
-      <c r="E6" s="86" t="s">
+      <c r="E6" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="84">
+      <c r="F6" s="69"/>
+      <c r="G6" s="70">
         <v>300</v>
       </c>
-      <c r="H6" s="85"/>
-    </row>
-    <row r="7" s="77" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A7" s="78"/>
-      <c r="B7" s="79">
-        <v>43232.6666666667</v>
-      </c>
-      <c r="C7" s="80" t="s">
+      <c r="H6" s="71"/>
+    </row>
+    <row r="7" spans="1:13" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="93"/>
+      <c r="B7" s="65">
+        <v>43232.666666666701</v>
+      </c>
+      <c r="C7" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="81">
+      <c r="D7" s="67">
         <v>6</v>
       </c>
-      <c r="E7" s="82" t="s">
+      <c r="E7" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="83">
-        <f t="shared" ref="F7:F35" si="0">D7*100</f>
+      <c r="F7" s="69">
+        <f t="shared" ref="F7:F30" si="0">D7*100</f>
         <v>600</v>
       </c>
-      <c r="G7" s="84">
+      <c r="G7" s="70">
         <v>300</v>
       </c>
-      <c r="H7" s="85"/>
-    </row>
-    <row r="8" s="77" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A8" s="78"/>
-      <c r="B8" s="79">
+      <c r="H7" s="71"/>
+    </row>
+    <row r="8" spans="1:13" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="93"/>
+      <c r="B8" s="65">
         <v>43239.75</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="81">
+      <c r="D8" s="67">
         <v>6</v>
       </c>
-      <c r="E8" s="82" t="s">
+      <c r="E8" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="83">
+      <c r="F8" s="69">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="G8" s="84">
+      <c r="G8" s="70">
         <v>300</v>
       </c>
-      <c r="H8" s="85"/>
-    </row>
-    <row r="9" s="77" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A9" s="78"/>
-      <c r="B9" s="79">
-        <v>43246.6666666667</v>
-      </c>
-      <c r="C9" s="80" t="s">
+      <c r="H8" s="71"/>
+    </row>
+    <row r="9" spans="1:13" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="93"/>
+      <c r="B9" s="65">
+        <v>43246.666666666701</v>
+      </c>
+      <c r="C9" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="81">
+      <c r="D9" s="67">
         <v>3</v>
       </c>
-      <c r="E9" s="82" t="s">
+      <c r="E9" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="83">
+      <c r="F9" s="69">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="G9" s="84">
+      <c r="G9" s="70">
         <v>300</v>
       </c>
-      <c r="H9" s="85"/>
-    </row>
-    <row r="10" s="77" customFormat="1" ht="33" customHeight="1" spans="1:8">
-      <c r="A10" s="78" t="s">
+      <c r="H9" s="71"/>
+    </row>
+    <row r="10" spans="1:13" s="64" customFormat="1" ht="33" customHeight="1">
+      <c r="A10" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="26">
-        <v>43224.7916666667</v>
-      </c>
-      <c r="C10" s="87" t="s">
+      <c r="B10" s="21">
+        <v>43224.791666666701</v>
+      </c>
+      <c r="C10" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="87">
+      <c r="D10" s="73">
         <v>14</v>
       </c>
-      <c r="E10" s="88" t="s">
+      <c r="E10" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="83">
+      <c r="F10" s="69">
         <f t="shared" si="0"/>
         <v>1400</v>
       </c>
-      <c r="G10" s="84">
+      <c r="G10" s="70">
         <f>100+25*D10</f>
         <v>450</v>
       </c>
-      <c r="H10" s="85"/>
-    </row>
-    <row r="11" s="77" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A11" s="78"/>
-      <c r="B11" s="26">
+      <c r="H10" s="71"/>
+    </row>
+    <row r="11" spans="1:13" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="93"/>
+      <c r="B11" s="21">
         <v>43225.4375</v>
       </c>
-      <c r="C11" s="87" t="s">
+      <c r="C11" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="87">
+      <c r="D11" s="73">
         <v>4</v>
       </c>
-      <c r="E11" s="88" t="s">
+      <c r="E11" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="83">
+      <c r="F11" s="69">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="G11" s="84">
+      <c r="G11" s="70">
         <f t="shared" ref="G11:G54" si="1">100+25*D11</f>
         <v>200</v>
       </c>
-      <c r="H11" s="85"/>
-    </row>
-    <row r="12" s="77" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A12" s="78"/>
-      <c r="B12" s="26">
-        <v>43225.7083333333</v>
-      </c>
-      <c r="C12" s="87" t="s">
+      <c r="H11" s="71"/>
+    </row>
+    <row r="12" spans="1:13" s="64" customFormat="1" ht="18" customHeight="1">
+      <c r="A12" s="93"/>
+      <c r="B12" s="21">
+        <v>43225.708333333299</v>
+      </c>
+      <c r="C12" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="87">
+      <c r="D12" s="73">
         <v>9</v>
       </c>
-      <c r="E12" s="89" t="s">
+      <c r="E12" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="83">
+      <c r="F12" s="69">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="G12" s="84">
+      <c r="G12" s="70">
         <f t="shared" si="1"/>
         <v>325</v>
       </c>
-      <c r="H12" s="85"/>
-    </row>
-    <row r="13" s="77" customFormat="1" ht="34" customHeight="1" spans="1:8">
-      <c r="A13" s="78"/>
-      <c r="B13" s="26">
-        <v>43231.7916666667</v>
-      </c>
-      <c r="C13" s="87" t="s">
+      <c r="H12" s="71"/>
+    </row>
+    <row r="13" spans="1:13" s="64" customFormat="1" ht="33.950000000000003" customHeight="1">
+      <c r="A13" s="93"/>
+      <c r="B13" s="21">
+        <v>43231.791666666701</v>
+      </c>
+      <c r="C13" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="87">
+      <c r="D13" s="73">
         <v>11</v>
       </c>
-      <c r="E13" s="88" t="s">
+      <c r="E13" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="83">
+      <c r="F13" s="69">
         <f t="shared" si="0"/>
         <v>1100</v>
       </c>
-      <c r="G13" s="84">
+      <c r="G13" s="70">
         <f t="shared" si="1"/>
         <v>375</v>
       </c>
-      <c r="H13" s="85"/>
-    </row>
-    <row r="14" s="77" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A14" s="78"/>
-      <c r="B14" s="79">
+      <c r="H13" s="71"/>
+    </row>
+    <row r="14" spans="1:13" s="64" customFormat="1" ht="30" customHeight="1">
+      <c r="A14" s="93"/>
+      <c r="B14" s="65">
         <v>43232.375</v>
       </c>
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="81">
+      <c r="D14" s="67">
         <v>10</v>
       </c>
-      <c r="E14" s="86" t="s">
+      <c r="E14" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="83">
+      <c r="F14" s="69">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="G14" s="84">
+      <c r="G14" s="70">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="H14" s="85"/>
-    </row>
-    <row r="15" s="77" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A15" s="78"/>
-      <c r="B15" s="79">
+      <c r="H14" s="71"/>
+    </row>
+    <row r="15" spans="1:13" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="93"/>
+      <c r="B15" s="65">
         <v>43232.4375</v>
       </c>
-      <c r="C15" s="80" t="s">
+      <c r="C15" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="81">
+      <c r="D15" s="67">
         <v>6</v>
       </c>
-      <c r="E15" s="82" t="s">
+      <c r="E15" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="83">
+      <c r="F15" s="69">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="G15" s="84">
+      <c r="G15" s="70">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="H15" s="85"/>
-    </row>
-    <row r="16" s="77" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A16" s="78"/>
-      <c r="B16" s="26">
-        <v>43232.7083333333</v>
-      </c>
-      <c r="C16" s="87" t="s">
+      <c r="H15" s="71"/>
+    </row>
+    <row r="16" spans="1:13" s="64" customFormat="1" ht="30" customHeight="1">
+      <c r="A16" s="93"/>
+      <c r="B16" s="21">
+        <v>43232.708333333299</v>
+      </c>
+      <c r="C16" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="87">
+      <c r="D16" s="73">
         <v>8</v>
       </c>
-      <c r="E16" s="88" t="s">
+      <c r="E16" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="83">
+      <c r="F16" s="69">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="G16" s="84">
+      <c r="G16" s="70">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="H16" s="90"/>
-    </row>
-    <row r="17" s="77" customFormat="1" ht="38" customHeight="1" spans="1:8">
-      <c r="A17" s="78"/>
-      <c r="B17" s="26">
-        <v>43238.7916666667</v>
-      </c>
-      <c r="C17" s="87" t="s">
+      <c r="H16" s="76"/>
+    </row>
+    <row r="17" spans="1:8" s="64" customFormat="1" ht="38.1" customHeight="1">
+      <c r="A17" s="93"/>
+      <c r="B17" s="21">
+        <v>43238.791666666701</v>
+      </c>
+      <c r="C17" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="87">
+      <c r="D17" s="73">
         <v>15</v>
       </c>
-      <c r="E17" s="88" t="s">
+      <c r="E17" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="83">
+      <c r="F17" s="69">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="G17" s="84">
+      <c r="G17" s="70">
         <f t="shared" si="1"/>
         <v>475</v>
       </c>
-      <c r="H17" s="90"/>
-    </row>
-    <row r="18" s="77" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A18" s="78"/>
-      <c r="B18" s="26">
+      <c r="H17" s="76"/>
+    </row>
+    <row r="18" spans="1:8" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A18" s="93"/>
+      <c r="B18" s="21">
         <v>43239.4375</v>
       </c>
-      <c r="C18" s="87" t="s">
+      <c r="C18" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="87">
+      <c r="D18" s="73">
         <v>3</v>
       </c>
-      <c r="E18" s="88" t="s">
+      <c r="E18" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="83">
+      <c r="F18" s="69">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="G18" s="84">
+      <c r="G18" s="70">
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="H18" s="90"/>
-    </row>
-    <row r="19" s="77" customFormat="1" ht="33" customHeight="1" spans="1:8">
-      <c r="A19" s="78"/>
-      <c r="B19" s="26">
-        <v>43239.7083333333</v>
-      </c>
-      <c r="C19" s="87" t="s">
+      <c r="H18" s="76"/>
+    </row>
+    <row r="19" spans="1:8" s="64" customFormat="1" ht="33" customHeight="1">
+      <c r="A19" s="93"/>
+      <c r="B19" s="21">
+        <v>43239.708333333299</v>
+      </c>
+      <c r="C19" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="87">
+      <c r="D19" s="73">
         <v>10</v>
       </c>
-      <c r="E19" s="88" t="s">
+      <c r="E19" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="83">
+      <c r="F19" s="69">
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="G19" s="84">
+      <c r="G19" s="70">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="H19" s="90"/>
-    </row>
-    <row r="20" s="77" customFormat="1" ht="37" customHeight="1" spans="1:8">
-      <c r="A20" s="78"/>
-      <c r="B20" s="26">
+      <c r="H19" s="76"/>
+    </row>
+    <row r="20" spans="1:8" s="64" customFormat="1" ht="36.950000000000003" customHeight="1">
+      <c r="A20" s="93"/>
+      <c r="B20" s="21">
         <v>43240.375</v>
       </c>
-      <c r="C20" s="87" t="s">
+      <c r="C20" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="87">
+      <c r="D20" s="73">
         <v>11</v>
       </c>
-      <c r="E20" s="88" t="s">
+      <c r="E20" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="83">
+      <c r="F20" s="69">
         <f t="shared" si="0"/>
         <v>1100</v>
       </c>
-      <c r="G20" s="84">
+      <c r="G20" s="70">
         <f t="shared" si="1"/>
         <v>375</v>
       </c>
-      <c r="H20" s="90"/>
-    </row>
-    <row r="21" s="77" customFormat="1" ht="35" customHeight="1" spans="1:8">
-      <c r="A21" s="78"/>
-      <c r="B21" s="26">
-        <v>43245.7916666667</v>
-      </c>
-      <c r="C21" s="87" t="s">
+      <c r="H20" s="76"/>
+    </row>
+    <row r="21" spans="1:8" s="64" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A21" s="93"/>
+      <c r="B21" s="21">
+        <v>43245.791666666701</v>
+      </c>
+      <c r="C21" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="87">
+      <c r="D21" s="73">
         <v>12</v>
       </c>
-      <c r="E21" s="88" t="s">
+      <c r="E21" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="83">
+      <c r="F21" s="69">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="G21" s="84">
+      <c r="G21" s="70">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="H21" s="90"/>
-    </row>
-    <row r="22" s="77" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A22" s="78"/>
-      <c r="B22" s="26">
+      <c r="H21" s="76"/>
+    </row>
+    <row r="22" spans="1:8" s="64" customFormat="1" ht="18" customHeight="1">
+      <c r="A22" s="93"/>
+      <c r="B22" s="21">
         <v>43246.4375</v>
       </c>
-      <c r="C22" s="87" t="s">
+      <c r="C22" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="87">
+      <c r="D22" s="73">
         <v>4</v>
       </c>
-      <c r="E22" s="88" t="s">
+      <c r="E22" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="83">
+      <c r="F22" s="69">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="G22" s="84">
+      <c r="G22" s="70">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="H22" s="90"/>
-    </row>
-    <row r="23" s="77" customFormat="1" ht="17" customHeight="1" spans="1:8">
-      <c r="A23" s="78"/>
-      <c r="B23" s="26">
-        <v>43246.7708333333</v>
-      </c>
-      <c r="C23" s="87" t="s">
+      <c r="H22" s="76"/>
+    </row>
+    <row r="23" spans="1:8" s="64" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A23" s="93"/>
+      <c r="B23" s="21">
+        <v>43246.770833333299</v>
+      </c>
+      <c r="C23" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="87">
+      <c r="D23" s="73">
         <v>7</v>
       </c>
-      <c r="E23" s="88" t="s">
+      <c r="E23" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="83">
+      <c r="F23" s="69">
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
-      <c r="G23" s="84">
+      <c r="G23" s="70">
         <f t="shared" si="1"/>
         <v>275</v>
       </c>
-      <c r="H23" s="90"/>
-    </row>
-    <row r="24" s="77" customFormat="1" ht="17" customHeight="1" spans="1:8">
-      <c r="A24" s="78"/>
-      <c r="B24" s="26">
-        <v>43247.3541666667</v>
-      </c>
-      <c r="C24" s="87" t="s">
+      <c r="H23" s="76"/>
+    </row>
+    <row r="24" spans="1:8" s="64" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A24" s="93"/>
+      <c r="B24" s="21">
+        <v>43247.354166666701</v>
+      </c>
+      <c r="C24" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="87">
+      <c r="D24" s="73">
         <v>9</v>
       </c>
-      <c r="E24" s="88" t="s">
+      <c r="E24" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="83">
+      <c r="F24" s="69">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="G24" s="84">
+      <c r="G24" s="70">
         <f t="shared" si="1"/>
         <v>325</v>
       </c>
-      <c r="H24" s="90"/>
-    </row>
-    <row r="25" s="77" customFormat="1" ht="20" customHeight="1" spans="1:8">
-      <c r="A25" s="91" t="s">
+      <c r="H24" s="76"/>
+    </row>
+    <row r="25" spans="1:8" s="64" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="26">
-        <v>43225.6666666667</v>
-      </c>
-      <c r="C25" s="87" t="s">
+      <c r="B25" s="21">
+        <v>43225.666666666701</v>
+      </c>
+      <c r="C25" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="87">
+      <c r="D25" s="73">
         <v>4</v>
       </c>
-      <c r="E25" s="89" t="s">
+      <c r="E25" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="83">
+      <c r="F25" s="69">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="G25" s="84">
+      <c r="G25" s="70">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="H25" s="90"/>
-    </row>
-    <row r="26" s="77" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A26" s="91"/>
-      <c r="B26" s="26">
-        <v>43225.7708333333</v>
-      </c>
-      <c r="C26" s="87" t="s">
+      <c r="H25" s="76"/>
+    </row>
+    <row r="26" spans="1:8" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A26" s="94"/>
+      <c r="B26" s="21">
+        <v>43225.770833333299</v>
+      </c>
+      <c r="C26" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="D26" s="87">
+      <c r="D26" s="73">
         <v>4</v>
       </c>
-      <c r="E26" s="89" t="s">
+      <c r="E26" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="83">
+      <c r="F26" s="69">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="G26" s="84">
+      <c r="G26" s="70">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="H26" s="90"/>
-    </row>
-    <row r="27" s="77" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A27" s="91"/>
-      <c r="B27" s="26">
-        <v>43226.4166666667</v>
-      </c>
-      <c r="C27" s="87" t="s">
+      <c r="H26" s="76"/>
+    </row>
+    <row r="27" spans="1:8" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A27" s="94"/>
+      <c r="B27" s="21">
+        <v>43226.416666666701</v>
+      </c>
+      <c r="C27" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="87">
+      <c r="D27" s="73">
         <v>3</v>
       </c>
-      <c r="E27" s="89" t="s">
+      <c r="E27" s="75" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="83">
+      <c r="F27" s="69">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="G27" s="84">
+      <c r="G27" s="70">
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="H27" s="90"/>
-    </row>
-    <row r="28" s="77" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A28" s="91"/>
-      <c r="B28" s="26">
-        <v>43226.7083333333</v>
-      </c>
-      <c r="C28" s="87" t="s">
+      <c r="H27" s="76"/>
+    </row>
+    <row r="28" spans="1:8" s="64" customFormat="1" ht="18" customHeight="1">
+      <c r="A28" s="94"/>
+      <c r="B28" s="21">
+        <v>43226.708333333299</v>
+      </c>
+      <c r="C28" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="87">
+      <c r="D28" s="73">
         <v>7</v>
       </c>
-      <c r="E28" s="88" t="s">
+      <c r="E28" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="83">
+      <c r="F28" s="69">
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
-      <c r="G28" s="84">
+      <c r="G28" s="70">
         <f t="shared" si="1"/>
         <v>275</v>
       </c>
-      <c r="H28" s="90"/>
-    </row>
-    <row r="29" s="77" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A29" s="91"/>
-      <c r="B29" s="26">
-        <v>43227.7083333333</v>
-      </c>
-      <c r="C29" s="87" t="s">
+      <c r="H28" s="76"/>
+    </row>
+    <row r="29" spans="1:8" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A29" s="94"/>
+      <c r="B29" s="21">
+        <v>43227.708333333299</v>
+      </c>
+      <c r="C29" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="87">
+      <c r="D29" s="73">
         <v>3</v>
       </c>
-      <c r="E29" s="89" t="s">
+      <c r="E29" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="83">
+      <c r="F29" s="69">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="G29" s="84">
+      <c r="G29" s="70">
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="H29" s="90"/>
-    </row>
-    <row r="30" s="77" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A30" s="91"/>
-      <c r="B30" s="26">
-        <v>43231.7916666667</v>
-      </c>
-      <c r="C30" s="87" t="s">
+      <c r="H29" s="76"/>
+    </row>
+    <row r="30" spans="1:8" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A30" s="94"/>
+      <c r="B30" s="21">
+        <v>43231.791666666701</v>
+      </c>
+      <c r="C30" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="87">
+      <c r="D30" s="73">
         <v>2</v>
       </c>
-      <c r="E30" s="89" t="s">
+      <c r="E30" s="75" t="s">
         <v>52</v>
       </c>
-      <c r="F30" s="83">
+      <c r="F30" s="69">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="G30" s="84">
+      <c r="G30" s="70">
         <v>177</v>
       </c>
-      <c r="H30" s="90"/>
-    </row>
-    <row r="31" s="77" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A31" s="91"/>
-      <c r="B31" s="26">
-        <v>43232.6666666667</v>
-      </c>
-      <c r="C31" s="87" t="s">
+      <c r="H30" s="76"/>
+    </row>
+    <row r="31" spans="1:8" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A31" s="94"/>
+      <c r="B31" s="21">
+        <v>43232.666666666701</v>
+      </c>
+      <c r="C31" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="87">
+      <c r="D31" s="73">
         <v>8</v>
       </c>
-      <c r="E31" s="89" t="s">
+      <c r="E31" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="83">
+      <c r="F31" s="69">
         <v>360</v>
       </c>
-      <c r="G31" s="84">
+      <c r="G31" s="70">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="H31" s="90"/>
-    </row>
-    <row r="32" s="77" customFormat="1" ht="19" customHeight="1" spans="1:8">
-      <c r="A32" s="91"/>
-      <c r="B32" s="26">
-        <v>43232.7708333333</v>
-      </c>
-      <c r="C32" s="87" t="s">
+      <c r="H31" s="76"/>
+    </row>
+    <row r="32" spans="1:8" s="64" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A32" s="94"/>
+      <c r="B32" s="21">
+        <v>43232.770833333299</v>
+      </c>
+      <c r="C32" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="87">
+      <c r="D32" s="73">
         <v>4</v>
       </c>
-      <c r="E32" s="92" t="s">
+      <c r="E32" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="F32" s="83">
+      <c r="F32" s="69">
         <f>D32*100</f>
         <v>400</v>
       </c>
-      <c r="G32" s="84">
+      <c r="G32" s="70">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="H32" s="90"/>
-    </row>
-    <row r="33" s="77" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A33" s="91"/>
-      <c r="B33" s="26">
-        <v>43233.3333333333</v>
-      </c>
-      <c r="C33" s="87" t="s">
+      <c r="H32" s="76"/>
+    </row>
+    <row r="33" spans="1:8" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A33" s="94"/>
+      <c r="B33" s="21">
+        <v>43233.333333333299</v>
+      </c>
+      <c r="C33" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="D33" s="87">
+      <c r="D33" s="73">
         <v>4</v>
       </c>
-      <c r="E33" s="89" t="s">
+      <c r="E33" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="83">
-        <f t="shared" ref="F33:F55" si="2">D33*100</f>
+      <c r="F33" s="69">
+        <f t="shared" ref="F33:F54" si="2">D33*100</f>
         <v>400</v>
       </c>
-      <c r="G33" s="84">
+      <c r="G33" s="70">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="H33" s="90"/>
-    </row>
-    <row r="34" s="77" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A34" s="91"/>
-      <c r="B34" s="26">
-        <v>43233.4166666667</v>
-      </c>
-      <c r="C34" s="87" t="s">
+      <c r="H33" s="76"/>
+    </row>
+    <row r="34" spans="1:8" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A34" s="94"/>
+      <c r="B34" s="21">
+        <v>43233.416666666701</v>
+      </c>
+      <c r="C34" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="87">
+      <c r="D34" s="73">
         <v>4</v>
       </c>
-      <c r="E34" s="89" t="s">
+      <c r="E34" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="83">
+      <c r="F34" s="69">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="G34" s="84">
+      <c r="G34" s="70">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="H34" s="90"/>
-    </row>
-    <row r="35" s="77" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A35" s="91"/>
-      <c r="B35" s="26">
-        <v>43233.7083333333</v>
-      </c>
-      <c r="C35" s="87" t="s">
+      <c r="H34" s="76"/>
+    </row>
+    <row r="35" spans="1:8" s="64" customFormat="1" ht="18" customHeight="1">
+      <c r="A35" s="94"/>
+      <c r="B35" s="21">
+        <v>43233.708333333299</v>
+      </c>
+      <c r="C35" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="87">
+      <c r="D35" s="73">
         <v>9</v>
       </c>
-      <c r="E35" s="88" t="s">
+      <c r="E35" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="F35" s="83">
+      <c r="F35" s="69">
         <f t="shared" si="2"/>
         <v>900</v>
       </c>
-      <c r="G35" s="84">
+      <c r="G35" s="70">
         <f t="shared" si="1"/>
         <v>325</v>
       </c>
-      <c r="H35" s="90"/>
-    </row>
-    <row r="36" s="77" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A36" s="91"/>
-      <c r="B36" s="26">
-        <v>43234.7083333333</v>
-      </c>
-      <c r="C36" s="87" t="s">
+      <c r="H35" s="76"/>
+    </row>
+    <row r="36" spans="1:8" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A36" s="94"/>
+      <c r="B36" s="21">
+        <v>43234.708333333299</v>
+      </c>
+      <c r="C36" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="87">
+      <c r="D36" s="73">
         <v>3</v>
       </c>
-      <c r="E36" s="89" t="s">
+      <c r="E36" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="F36" s="83">
+      <c r="F36" s="69">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="G36" s="84">
+      <c r="G36" s="70">
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="H36" s="90"/>
-    </row>
-    <row r="37" s="77" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A37" s="91"/>
-      <c r="B37" s="26">
-        <v>43239.6666666667</v>
-      </c>
-      <c r="C37" s="93" t="s">
+      <c r="H36" s="76"/>
+    </row>
+    <row r="37" spans="1:8" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A37" s="94"/>
+      <c r="B37" s="21">
+        <v>43239.666666666701</v>
+      </c>
+      <c r="C37" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="D37" s="87">
+      <c r="D37" s="73">
         <v>4</v>
       </c>
-      <c r="E37" s="89" t="s">
+      <c r="E37" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="F37" s="83">
+      <c r="F37" s="69">
         <v>360</v>
       </c>
-      <c r="G37" s="84">
+      <c r="G37" s="70">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="H37" s="90"/>
-    </row>
-    <row r="38" s="77" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A38" s="91"/>
-      <c r="B38" s="26">
-        <v>43239.7708333333</v>
-      </c>
-      <c r="C38" s="87" t="s">
+      <c r="H37" s="76"/>
+    </row>
+    <row r="38" spans="1:8" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A38" s="94"/>
+      <c r="B38" s="21">
+        <v>43239.770833333299</v>
+      </c>
+      <c r="C38" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="87">
+      <c r="D38" s="73">
         <v>4</v>
       </c>
-      <c r="E38" s="89" t="s">
+      <c r="E38" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="F38" s="83">
+      <c r="F38" s="69">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="G38" s="84">
+      <c r="G38" s="70">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="H38" s="90"/>
-    </row>
-    <row r="39" s="77" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A39" s="91"/>
-      <c r="B39" s="26">
-        <v>43240.7083333333</v>
-      </c>
-      <c r="C39" s="87" t="s">
+      <c r="H38" s="76"/>
+    </row>
+    <row r="39" spans="1:8" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A39" s="94"/>
+      <c r="B39" s="21">
+        <v>43240.708333333299</v>
+      </c>
+      <c r="C39" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="87">
+      <c r="D39" s="73">
         <v>7</v>
       </c>
-      <c r="E39" s="89" t="s">
+      <c r="E39" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="F39" s="83">
+      <c r="F39" s="69">
         <f t="shared" si="2"/>
         <v>700</v>
       </c>
-      <c r="G39" s="84">
+      <c r="G39" s="70">
         <f t="shared" si="1"/>
         <v>275</v>
       </c>
-      <c r="H39" s="90"/>
-    </row>
-    <row r="40" s="77" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A40" s="91"/>
-      <c r="B40" s="26">
-        <v>43241.7083333333</v>
-      </c>
-      <c r="C40" s="87" t="s">
+      <c r="H39" s="76"/>
+    </row>
+    <row r="40" spans="1:8" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A40" s="94"/>
+      <c r="B40" s="21">
+        <v>43241.708333333299</v>
+      </c>
+      <c r="C40" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="87">
+      <c r="D40" s="73">
         <v>2</v>
       </c>
-      <c r="E40" s="89" t="s">
+      <c r="E40" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="F40" s="83">
+      <c r="F40" s="69">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="G40" s="84">
+      <c r="G40" s="70">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="H40" s="90"/>
-    </row>
-    <row r="41" s="77" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A41" s="91"/>
-      <c r="B41" s="26">
-        <v>43246.7708333333</v>
-      </c>
-      <c r="C41" s="87" t="s">
+      <c r="H40" s="76"/>
+    </row>
+    <row r="41" spans="1:8" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A41" s="94"/>
+      <c r="B41" s="21">
+        <v>43246.770833333299</v>
+      </c>
+      <c r="C41" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="87">
+      <c r="D41" s="73">
         <v>4</v>
       </c>
-      <c r="E41" s="89" t="s">
+      <c r="E41" s="75" t="s">
         <v>65</v>
       </c>
-      <c r="F41" s="83">
+      <c r="F41" s="69">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="G41" s="84">
+      <c r="G41" s="70">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="H41" s="90"/>
-    </row>
-    <row r="42" s="77" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A42" s="91"/>
-      <c r="B42" s="26">
-        <v>43247.3333333333</v>
-      </c>
-      <c r="C42" s="87" t="s">
+      <c r="H41" s="76"/>
+    </row>
+    <row r="42" spans="1:8" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A42" s="94"/>
+      <c r="B42" s="21">
+        <v>43247.333333333299</v>
+      </c>
+      <c r="C42" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="D42" s="87">
+      <c r="D42" s="73">
         <v>4</v>
       </c>
-      <c r="E42" s="89" t="s">
+      <c r="E42" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="F42" s="83">
+      <c r="F42" s="69">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="G42" s="84">
+      <c r="G42" s="70">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="H42" s="90"/>
-    </row>
-    <row r="43" s="77" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A43" s="91"/>
-      <c r="B43" s="26">
-        <v>43247.4166666667</v>
-      </c>
-      <c r="C43" s="87" t="s">
+      <c r="H42" s="76"/>
+    </row>
+    <row r="43" spans="1:8" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A43" s="94"/>
+      <c r="B43" s="21">
+        <v>43247.416666666701</v>
+      </c>
+      <c r="C43" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="D43" s="87">
+      <c r="D43" s="73">
         <v>5</v>
       </c>
-      <c r="E43" s="89" t="s">
+      <c r="E43" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="F43" s="83">
+      <c r="F43" s="69">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="G43" s="84">
+      <c r="G43" s="70">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="H43" s="90"/>
-    </row>
-    <row r="44" s="77" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A44" s="91"/>
-      <c r="B44" s="26">
-        <v>43247.7083333333</v>
-      </c>
-      <c r="C44" s="87" t="s">
+      <c r="H43" s="76"/>
+    </row>
+    <row r="44" spans="1:8" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A44" s="94"/>
+      <c r="B44" s="21">
+        <v>43247.708333333299</v>
+      </c>
+      <c r="C44" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="D44" s="87">
+      <c r="D44" s="73">
         <v>6</v>
       </c>
-      <c r="E44" s="89" t="s">
+      <c r="E44" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="F44" s="83">
+      <c r="F44" s="69">
         <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="G44" s="84">
+      <c r="G44" s="70">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="H44" s="94" t="s">
+      <c r="H44" s="79" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="45" s="77" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A45" s="91"/>
-      <c r="B45" s="26">
-        <v>43248.6305555556</v>
-      </c>
-      <c r="C45" s="87" t="s">
+    <row r="45" spans="1:8" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A45" s="94"/>
+      <c r="B45" s="21">
+        <v>43248.630555555603</v>
+      </c>
+      <c r="C45" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="D45" s="87">
+      <c r="D45" s="73">
         <v>2</v>
       </c>
-      <c r="E45" s="89" t="s">
+      <c r="E45" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="F45" s="83">
+      <c r="F45" s="69">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="G45" s="84">
+      <c r="G45" s="70">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="H45" s="90"/>
-    </row>
-    <row r="46" s="77" customFormat="1" ht="15" customHeight="1" spans="1:8">
+      <c r="H45" s="76"/>
+    </row>
+    <row r="46" spans="1:8" s="64" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="B46" s="26">
-        <v>43224.8333333333</v>
-      </c>
-      <c r="C46" s="93" t="s">
+      <c r="B46" s="21">
+        <v>43224.833333333299</v>
+      </c>
+      <c r="C46" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="D46" s="87">
+      <c r="D46" s="73">
         <v>4</v>
       </c>
-      <c r="E46" s="89" t="s">
+      <c r="E46" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="F46" s="83">
+      <c r="F46" s="69">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="G46" s="84">
+      <c r="G46" s="70">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="H46" s="94"/>
-    </row>
-    <row r="47" s="77" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A47" s="78"/>
-      <c r="B47" s="26">
+      <c r="H46" s="79"/>
+    </row>
+    <row r="47" spans="1:8" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A47" s="93"/>
+      <c r="B47" s="21">
         <v>43232.34375</v>
       </c>
-      <c r="C47" s="93" t="s">
+      <c r="C47" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="D47" s="87">
+      <c r="D47" s="73">
         <v>6</v>
       </c>
-      <c r="E47" s="89" t="s">
+      <c r="E47" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="F47" s="83">
+      <c r="F47" s="69">
         <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="G47" s="84">
+      <c r="G47" s="70">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="H47" s="94"/>
-    </row>
-    <row r="48" s="77" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A48" s="78"/>
-      <c r="B48" s="26">
-        <v>43238.8333333333</v>
-      </c>
-      <c r="C48" s="93" t="s">
+      <c r="H47" s="79"/>
+    </row>
+    <row r="48" spans="1:8" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A48" s="93"/>
+      <c r="B48" s="21">
+        <v>43238.833333333299</v>
+      </c>
+      <c r="C48" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="D48" s="87">
+      <c r="D48" s="73">
         <v>3</v>
       </c>
-      <c r="E48" s="89" t="s">
+      <c r="E48" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="F48" s="83">
+      <c r="F48" s="69">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="G48" s="84">
+      <c r="G48" s="70">
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="H48" s="94"/>
-    </row>
-    <row r="49" s="77" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A49" s="78"/>
-      <c r="B49" s="26">
+      <c r="H48" s="79"/>
+    </row>
+    <row r="49" spans="1:9" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A49" s="93"/>
+      <c r="B49" s="21">
         <v>43239.34375</v>
       </c>
-      <c r="C49" s="93" t="s">
+      <c r="C49" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="D49" s="87">
+      <c r="D49" s="73">
         <v>6</v>
       </c>
-      <c r="E49" s="89" t="s">
+      <c r="E49" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="F49" s="83">
+      <c r="F49" s="69">
         <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="G49" s="84">
+      <c r="G49" s="70">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="H49" s="94"/>
-    </row>
-    <row r="50" s="77" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A50" s="78"/>
-      <c r="B50" s="26">
+      <c r="H49" s="79"/>
+    </row>
+    <row r="50" spans="1:9" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A50" s="93"/>
+      <c r="B50" s="21">
         <v>43246.34375</v>
       </c>
-      <c r="C50" s="93" t="s">
+      <c r="C50" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="D50" s="87">
+      <c r="D50" s="73">
         <v>4</v>
       </c>
-      <c r="E50" s="89" t="s">
+      <c r="E50" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="F50" s="83">
+      <c r="F50" s="69">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="G50" s="84">
+      <c r="G50" s="70">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="H50" s="94"/>
-    </row>
-    <row r="51" s="77" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A51" s="78"/>
-      <c r="B51" s="26">
-        <v>43233.3333333333</v>
-      </c>
-      <c r="C51" s="93" t="s">
+      <c r="H50" s="79"/>
+    </row>
+    <row r="51" spans="1:9" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A51" s="93"/>
+      <c r="B51" s="21">
+        <v>43233.333333333299</v>
+      </c>
+      <c r="C51" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="D51" s="87">
+      <c r="D51" s="73">
         <v>5</v>
       </c>
-      <c r="E51" s="89" t="s">
+      <c r="E51" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="F51" s="83">
+      <c r="F51" s="69">
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="G51" s="84">
+      <c r="G51" s="70">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="H51" s="94"/>
-    </row>
-    <row r="52" s="77" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A52" s="78"/>
-      <c r="B52" s="26">
-        <v>43240.3333333333</v>
-      </c>
-      <c r="C52" s="93" t="s">
+      <c r="H51" s="79"/>
+    </row>
+    <row r="52" spans="1:9" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A52" s="93"/>
+      <c r="B52" s="21">
+        <v>43240.333333333299</v>
+      </c>
+      <c r="C52" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="87">
+      <c r="D52" s="73">
         <v>4</v>
       </c>
-      <c r="E52" s="89" t="s">
+      <c r="E52" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="F52" s="83">
+      <c r="F52" s="69">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="G52" s="84">
+      <c r="G52" s="70">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="H52" s="94"/>
-    </row>
-    <row r="53" s="77" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A53" s="78"/>
-      <c r="B53" s="26">
-        <v>43245.8333333333</v>
-      </c>
-      <c r="C53" s="93" t="s">
+      <c r="H52" s="79"/>
+    </row>
+    <row r="53" spans="1:9" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A53" s="93"/>
+      <c r="B53" s="21">
+        <v>43245.833333333299</v>
+      </c>
+      <c r="C53" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="D53" s="87">
+      <c r="D53" s="73">
         <v>4</v>
       </c>
-      <c r="E53" s="89" t="s">
+      <c r="E53" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="F53" s="83">
+      <c r="F53" s="69">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="G53" s="84">
+      <c r="G53" s="70">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="H53" s="94"/>
-    </row>
-    <row r="54" s="77" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A54" s="78"/>
-      <c r="B54" s="26">
-        <v>43247.3340277778</v>
-      </c>
-      <c r="C54" s="93" t="s">
+      <c r="H53" s="79"/>
+    </row>
+    <row r="54" spans="1:9" s="64" customFormat="1" ht="15" customHeight="1">
+      <c r="A54" s="93"/>
+      <c r="B54" s="21">
+        <v>43247.334027777797</v>
+      </c>
+      <c r="C54" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="D54" s="87">
+      <c r="D54" s="73">
         <v>4</v>
       </c>
-      <c r="E54" s="89" t="s">
+      <c r="E54" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="F54" s="83">
+      <c r="F54" s="69">
         <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="G54" s="84">
+      <c r="G54" s="70">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="H54" s="94"/>
-    </row>
-    <row r="55" s="1" customFormat="1" ht="15" customHeight="1" spans="1:9">
-      <c r="A55" s="40" t="s">
+      <c r="H54" s="79"/>
+    </row>
+    <row r="55" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A55" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="B55" s="41"/>
-      <c r="C55" s="96"/>
-      <c r="D55" s="42">
+      <c r="B55" s="91"/>
+      <c r="C55" s="92"/>
+      <c r="D55" s="34">
         <f>SUM(D2:D54)</f>
         <v>314</v>
       </c>
-      <c r="E55" s="43"/>
-      <c r="F55" s="42">
+      <c r="E55" s="35"/>
+      <c r="F55" s="34">
         <f>SUM(F10:F54)</f>
         <v>26120</v>
       </c>
-      <c r="G55" s="97">
+      <c r="G55" s="80">
         <f>SUM(G2:G54)</f>
         <v>13577</v>
       </c>
-      <c r="H55" s="44"/>
-      <c r="I55" s="106"/>
-    </row>
-    <row r="56" s="2" customFormat="1" ht="21" customHeight="1" spans="5:7">
-      <c r="E56" s="70"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="98"/>
-    </row>
-    <row r="57" s="2" customFormat="1" ht="16.5" spans="5:7">
-      <c r="E57" s="99"/>
-      <c r="F57" s="99"/>
-      <c r="G57" s="98"/>
-    </row>
-    <row r="58" ht="16.5" spans="5:8">
-      <c r="E58" s="100"/>
-      <c r="F58" s="100"/>
-      <c r="H58" s="47"/>
-    </row>
-    <row r="59" ht="16.5" spans="5:8">
-      <c r="E59" s="101"/>
-      <c r="F59" s="101"/>
-      <c r="H59" s="47"/>
-    </row>
-    <row r="60" ht="16.5" spans="5:8">
-      <c r="E60" s="45"/>
-      <c r="F60" s="45"/>
-      <c r="H60" s="47"/>
-    </row>
-    <row r="61" ht="16.5" spans="5:8">
-      <c r="E61" s="102"/>
-      <c r="F61" s="102"/>
-      <c r="H61" s="49"/>
-    </row>
-    <row r="62" ht="16.5" spans="5:8">
-      <c r="E62" s="102"/>
-      <c r="F62" s="102"/>
-      <c r="H62" s="47"/>
-    </row>
-    <row r="63" ht="16.5" spans="8:8">
-      <c r="H63" s="47"/>
-    </row>
-    <row r="64" ht="16.5" spans="8:8">
-      <c r="H64" s="47"/>
-    </row>
-    <row r="65" ht="16.5" spans="8:8">
-      <c r="H65" s="47"/>
-    </row>
-    <row r="66" ht="16.5" spans="8:8">
-      <c r="H66" s="47"/>
-    </row>
-    <row r="67" ht="18" spans="8:8">
-      <c r="H67" s="50"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="89"/>
+    </row>
+    <row r="56" spans="1:9" s="2" customFormat="1" ht="21" customHeight="1">
+      <c r="E56" s="57"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="81"/>
+    </row>
+    <row r="57" spans="1:9" s="2" customFormat="1" ht="16.5">
+      <c r="E57" s="82"/>
+      <c r="F57" s="82"/>
+      <c r="G57" s="81"/>
+    </row>
+    <row r="58" spans="1:9" ht="16.5">
+      <c r="E58" s="83"/>
+      <c r="F58" s="83"/>
+      <c r="H58" s="39"/>
+    </row>
+    <row r="59" spans="1:9" ht="16.5">
+      <c r="E59" s="84"/>
+      <c r="F59" s="84"/>
+      <c r="H59" s="39"/>
+    </row>
+    <row r="60" spans="1:9" ht="16.5">
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="H60" s="39"/>
+    </row>
+    <row r="61" spans="1:9" ht="16.5">
+      <c r="E61" s="85"/>
+      <c r="F61" s="85"/>
+      <c r="H61" s="41"/>
+    </row>
+    <row r="62" spans="1:9" ht="16.5">
+      <c r="E62" s="85"/>
+      <c r="F62" s="85"/>
+      <c r="H62" s="39"/>
+    </row>
+    <row r="63" spans="1:9" ht="16.5">
+      <c r="H63" s="39"/>
+    </row>
+    <row r="64" spans="1:9" ht="16.5">
+      <c r="H64" s="39"/>
+    </row>
+    <row r="65" spans="8:8" ht="16.5">
+      <c r="H65" s="39"/>
+    </row>
+    <row r="66" spans="8:8" ht="16.5">
+      <c r="H66" s="39"/>
+    </row>
+    <row r="67" spans="8:8" ht="18">
+      <c r="H67" s="42"/>
     </row>
     <row r="68" spans="8:8">
-      <c r="H68" s="51"/>
+      <c r="H68" s="43"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M55">
@@ -4087,15 +3470,14 @@
     <mergeCell ref="A25:A45"/>
     <mergeCell ref="A46:A54"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4107,852 +3489,852 @@
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="5.4" customWidth="1"/>
-    <col min="5" max="5" width="60" style="52" customWidth="1"/>
+    <col min="4" max="4" width="5.375" customWidth="1"/>
+    <col min="5" max="5" width="60" style="44" customWidth="1"/>
     <col min="6" max="7" width="7.25" style="4" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="11" max="11" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1">
+      <c r="A1" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="48" customHeight="1" spans="1:8">
-      <c r="A2" s="54" t="s">
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="48" customHeight="1">
+      <c r="A2" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="H2" s="49" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="19" customHeight="1" spans="1:8">
-      <c r="A3" s="59" t="s">
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A3" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="26">
-        <v>43222.7291666667</v>
-      </c>
-      <c r="C3" s="27" t="s">
+      <c r="B3" s="21">
+        <v>43222.729166666701</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="18">
         <v>8</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="22">
         <f>D3*83</f>
         <v>664</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="22">
         <f t="shared" ref="G3:G31" si="0">F3*0.8</f>
-        <v>531.2</v>
-      </c>
-      <c r="H3" s="61"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="17" customHeight="1" spans="1:8">
-      <c r="A4" s="59"/>
-      <c r="B4" s="26">
+        <v>531.20000000000005</v>
+      </c>
+      <c r="H3" s="51"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A4" s="101"/>
+      <c r="B4" s="21">
         <v>43224</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="18">
         <v>1</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="22">
         <f t="shared" ref="F4:F12" si="1">D4*83</f>
         <v>83</v>
       </c>
-      <c r="G4" s="27">
-        <f t="shared" si="0"/>
-        <v>66.4</v>
-      </c>
-      <c r="H4" s="61"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="20" customHeight="1" spans="1:8">
-      <c r="A5" s="59"/>
-      <c r="B5" s="26">
-        <v>43224.7083333333</v>
-      </c>
-      <c r="C5" s="27" t="s">
+      <c r="G4" s="22">
+        <f t="shared" si="0"/>
+        <v>66.400000000000006</v>
+      </c>
+      <c r="H4" s="51"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="101"/>
+      <c r="B5" s="21">
+        <v>43224.708333333299</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="18">
         <v>8</v>
       </c>
-      <c r="E5" s="60" t="s">
+      <c r="E5" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="22">
         <f t="shared" si="1"/>
         <v>664</v>
       </c>
-      <c r="G5" s="27">
-        <f t="shared" si="0"/>
-        <v>531.2</v>
-      </c>
-      <c r="H5" s="61"/>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A6" s="59"/>
-      <c r="B6" s="26">
-        <v>43229.7291666667</v>
-      </c>
-      <c r="C6" s="27" t="s">
+      <c r="G5" s="22">
+        <f t="shared" si="0"/>
+        <v>531.20000000000005</v>
+      </c>
+      <c r="H5" s="51"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="101"/>
+      <c r="B6" s="21">
+        <v>43229.729166666701</v>
+      </c>
+      <c r="C6" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="18">
         <v>7</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="22">
         <f t="shared" si="1"/>
         <v>581</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="22">
         <f t="shared" si="0"/>
         <v>464.8</v>
       </c>
-      <c r="H6" s="61"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A7" s="59"/>
-      <c r="B7" s="26">
-        <v>43231.7083333333</v>
-      </c>
-      <c r="C7" s="27" t="s">
+      <c r="H6" s="51"/>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="101"/>
+      <c r="B7" s="21">
+        <v>43231.708333333299</v>
+      </c>
+      <c r="C7" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="18">
         <v>8</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="22">
         <f t="shared" si="1"/>
         <v>664</v>
       </c>
-      <c r="G7" s="27">
-        <f t="shared" si="0"/>
-        <v>531.2</v>
-      </c>
-      <c r="H7" s="61"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="17" customHeight="1" spans="1:8">
-      <c r="A8" s="59"/>
-      <c r="B8" s="26">
-        <v>43236.7083333333</v>
-      </c>
-      <c r="C8" s="27" t="s">
+      <c r="G7" s="22">
+        <f t="shared" si="0"/>
+        <v>531.20000000000005</v>
+      </c>
+      <c r="H7" s="51"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A8" s="101"/>
+      <c r="B8" s="21">
+        <v>43236.708333333299</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="18">
         <v>7</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="22">
         <f t="shared" si="1"/>
         <v>581</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="22">
         <f t="shared" si="0"/>
         <v>464.8</v>
       </c>
-      <c r="H8" s="61"/>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A9" s="59"/>
-      <c r="B9" s="26">
-        <v>43238.7083333333</v>
-      </c>
-      <c r="C9" s="27" t="s">
+      <c r="H8" s="51"/>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A9" s="101"/>
+      <c r="B9" s="21">
+        <v>43238.708333333299</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="18">
         <v>8</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="22">
         <f t="shared" si="1"/>
         <v>664</v>
       </c>
-      <c r="G9" s="27">
-        <f t="shared" si="0"/>
-        <v>531.2</v>
-      </c>
-      <c r="H9" s="61"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A10" s="59"/>
-      <c r="B10" s="26">
-        <v>43243.7083333333</v>
-      </c>
-      <c r="C10" s="27" t="s">
+      <c r="G9" s="22">
+        <f t="shared" si="0"/>
+        <v>531.20000000000005</v>
+      </c>
+      <c r="H9" s="51"/>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="101"/>
+      <c r="B10" s="21">
+        <v>43243.708333333299</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="18">
         <v>7</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="22">
         <f t="shared" si="1"/>
         <v>581</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="22">
         <f t="shared" si="0"/>
         <v>464.8</v>
       </c>
-      <c r="H10" s="61"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="32" customHeight="1" spans="1:8">
-      <c r="A11" s="59"/>
-      <c r="B11" s="26">
-        <v>43245.5618055556</v>
-      </c>
-      <c r="C11" s="27" t="s">
+      <c r="H10" s="51"/>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A11" s="101"/>
+      <c r="B11" s="21">
+        <v>43245.561805555597</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="18">
         <v>10</v>
       </c>
-      <c r="E11" s="60" t="s">
+      <c r="E11" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="22">
         <f t="shared" si="1"/>
         <v>830</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="22">
         <f t="shared" si="0"/>
         <v>664</v>
       </c>
-      <c r="H11" s="61"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A12" s="59"/>
-      <c r="B12" s="26">
-        <v>43250.7291666667</v>
-      </c>
-      <c r="C12" s="27" t="s">
+      <c r="H11" s="51"/>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="101"/>
+      <c r="B12" s="21">
+        <v>43250.729166666701</v>
+      </c>
+      <c r="C12" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="18">
         <v>2</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="22">
         <f t="shared" si="1"/>
         <v>166</v>
       </c>
-      <c r="G12" s="27">
-        <f t="shared" si="0"/>
-        <v>132.8</v>
-      </c>
-      <c r="H12" s="61"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="19.05" customHeight="1" spans="1:8">
-      <c r="A13" s="62" t="s">
+      <c r="G12" s="22">
+        <f t="shared" si="0"/>
+        <v>132.80000000000001</v>
+      </c>
+      <c r="H12" s="51"/>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="19.149999999999999" customHeight="1">
+      <c r="A13" s="102" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="21">
         <v>43225.625</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="18">
         <v>8</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="22">
         <f>D13*88</f>
         <v>704</v>
       </c>
-      <c r="G13" s="27">
-        <f t="shared" si="0"/>
-        <v>563.2</v>
-      </c>
-      <c r="H13" s="61"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A14" s="59"/>
-      <c r="B14" s="26">
-        <v>43226.6666666667</v>
-      </c>
-      <c r="C14" s="29" t="s">
+      <c r="G13" s="22">
+        <f t="shared" si="0"/>
+        <v>563.20000000000005</v>
+      </c>
+      <c r="H13" s="51"/>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A14" s="101"/>
+      <c r="B14" s="21">
+        <v>43226.666666666701</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="18">
         <v>1</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="22">
         <f t="shared" ref="F14:F23" si="2">D14*88</f>
         <v>88</v>
       </c>
-      <c r="G14" s="27">
-        <f t="shared" si="0"/>
-        <v>70.4</v>
-      </c>
-      <c r="H14" s="61"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A15" s="59"/>
-      <c r="B15" s="26">
-        <v>43230.6458333333</v>
-      </c>
-      <c r="C15" s="29" t="s">
+      <c r="G14" s="22">
+        <f t="shared" si="0"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="H14" s="51"/>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="101"/>
+      <c r="B15" s="21">
+        <v>43230.645833333299</v>
+      </c>
+      <c r="C15" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="18">
         <v>5</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="22">
         <f t="shared" si="2"/>
         <v>440</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="22">
         <f t="shared" si="0"/>
         <v>352</v>
       </c>
-      <c r="H15" s="61"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A16" s="59"/>
-      <c r="B16" s="26">
+      <c r="H15" s="51"/>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A16" s="101"/>
+      <c r="B16" s="21">
         <v>43232.625</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="18">
         <v>7</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="22">
         <f t="shared" si="2"/>
         <v>616</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="22">
         <f t="shared" si="0"/>
         <v>492.8</v>
       </c>
-      <c r="H16" s="61"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A17" s="59"/>
-      <c r="B17" s="26">
-        <v>43233.6666666667</v>
-      </c>
-      <c r="C17" s="29" t="s">
+      <c r="H16" s="51"/>
+    </row>
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A17" s="101"/>
+      <c r="B17" s="21">
+        <v>43233.666666666701</v>
+      </c>
+      <c r="C17" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="18">
         <v>1</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="22">
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="G17" s="27">
-        <f t="shared" si="0"/>
-        <v>70.4</v>
-      </c>
-      <c r="H17" s="61"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A18" s="59"/>
-      <c r="B18" s="26">
-        <v>43237.6458333333</v>
-      </c>
-      <c r="C18" s="29" t="s">
+      <c r="G17" s="22">
+        <f t="shared" si="0"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="H17" s="51"/>
+    </row>
+    <row r="18" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A18" s="101"/>
+      <c r="B18" s="21">
+        <v>43237.645833333299</v>
+      </c>
+      <c r="C18" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="18">
         <v>8</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="22">
         <f t="shared" si="2"/>
         <v>704</v>
       </c>
-      <c r="G18" s="27">
-        <f t="shared" si="0"/>
-        <v>563.2</v>
-      </c>
-      <c r="H18" s="61"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="30" customHeight="1" spans="1:11">
-      <c r="A19" s="59"/>
-      <c r="B19" s="26">
-        <v>43239.6458333333</v>
-      </c>
-      <c r="C19" s="29" t="s">
+      <c r="G18" s="22">
+        <f t="shared" si="0"/>
+        <v>563.20000000000005</v>
+      </c>
+      <c r="H18" s="51"/>
+    </row>
+    <row r="19" spans="1:11" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="A19" s="101"/>
+      <c r="B19" s="21">
+        <v>43239.645833333299</v>
+      </c>
+      <c r="C19" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="18">
         <v>6</v>
       </c>
-      <c r="E19" s="60" t="s">
+      <c r="E19" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="F19" s="27">
+      <c r="F19" s="22">
         <f t="shared" si="2"/>
         <v>528</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="22">
         <f t="shared" si="0"/>
         <v>422.4</v>
       </c>
-      <c r="H19" s="61"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="15" customHeight="1" spans="1:11">
-      <c r="A20" s="59"/>
-      <c r="B20" s="26">
-        <v>43240.5833333333</v>
-      </c>
-      <c r="C20" s="29" t="s">
+      <c r="H19" s="51"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+    </row>
+    <row r="20" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A20" s="101"/>
+      <c r="B20" s="21">
+        <v>43240.583333333299</v>
+      </c>
+      <c r="C20" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="18">
         <v>1</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="22">
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="G20" s="27">
-        <f t="shared" si="0"/>
-        <v>70.4</v>
-      </c>
-      <c r="H20" s="61"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="76"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="32" customHeight="1" spans="1:11">
-      <c r="A21" s="59"/>
-      <c r="B21" s="26">
-        <v>43244.6458333333</v>
-      </c>
-      <c r="C21" s="29" t="s">
+      <c r="G20" s="22">
+        <f t="shared" si="0"/>
+        <v>70.400000000000006</v>
+      </c>
+      <c r="H20" s="51"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="63"/>
+    </row>
+    <row r="21" spans="1:11" s="1" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A21" s="101"/>
+      <c r="B21" s="21">
+        <v>43244.645833333299</v>
+      </c>
+      <c r="C21" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="18">
         <v>9</v>
       </c>
-      <c r="E21" s="60" t="s">
+      <c r="E21" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="22">
         <f t="shared" si="2"/>
         <v>792</v>
       </c>
-      <c r="G21" s="27">
+      <c r="G21" s="22">
         <f t="shared" si="0"/>
         <v>633.6</v>
       </c>
-      <c r="H21" s="61"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="76"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="15" customHeight="1" spans="1:11">
-      <c r="A22" s="59"/>
-      <c r="B22" s="26">
+      <c r="H21" s="51"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="63"/>
+    </row>
+    <row r="22" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A22" s="101"/>
+      <c r="B22" s="21">
         <v>43246.625</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="18">
         <v>7</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="27">
+      <c r="F22" s="22">
         <f t="shared" si="2"/>
         <v>616</v>
       </c>
-      <c r="G22" s="27">
+      <c r="G22" s="22">
         <f t="shared" si="0"/>
         <v>492.8</v>
       </c>
-      <c r="H22" s="61"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="76"/>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="33" customHeight="1" spans="1:11">
-      <c r="A23" s="59"/>
-      <c r="B23" s="26">
+      <c r="H22" s="51"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="63"/>
+    </row>
+    <row r="23" spans="1:11" s="1" customFormat="1" ht="33" customHeight="1">
+      <c r="A23" s="101"/>
+      <c r="B23" s="21">
         <v>43251.6875</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="18">
         <v>9</v>
       </c>
-      <c r="E23" s="60" t="s">
+      <c r="E23" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="F23" s="27">
+      <c r="F23" s="22">
         <f t="shared" si="2"/>
         <v>792</v>
       </c>
-      <c r="G23" s="27">
+      <c r="G23" s="22">
         <f t="shared" si="0"/>
         <v>633.6</v>
       </c>
-      <c r="H23" s="61"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="76"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="15" customHeight="1" spans="1:11">
-      <c r="A24" s="59" t="s">
+      <c r="H23" s="51"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="63"/>
+    </row>
+    <row r="24" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A24" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="21">
         <v>43226.4375</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="18">
         <v>6</v>
       </c>
-      <c r="E24" s="63" t="s">
+      <c r="E24" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="24">
         <f t="shared" ref="F24:F31" si="3">D24*100</f>
         <v>600</v>
       </c>
-      <c r="G24" s="29">
+      <c r="G24" s="24">
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
-      <c r="H24" s="61"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="49"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="15" customHeight="1" spans="1:11">
-      <c r="A25" s="59"/>
-      <c r="B25" s="26">
-        <v>43226.5833333333</v>
-      </c>
-      <c r="C25" s="29" t="s">
+      <c r="H24" s="51"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+    </row>
+    <row r="25" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A25" s="101"/>
+      <c r="B25" s="21">
+        <v>43226.583333333299</v>
+      </c>
+      <c r="C25" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="18">
         <v>9</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="F25" s="29">
+      <c r="F25" s="24">
         <f t="shared" si="3"/>
         <v>900</v>
       </c>
-      <c r="G25" s="29">
+      <c r="G25" s="24">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-      <c r="H25" s="61"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
-      <c r="K25" s="49"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="15" customHeight="1" spans="1:11">
-      <c r="A26" s="59"/>
-      <c r="B26" s="26">
+      <c r="H25" s="51"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+    </row>
+    <row r="26" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A26" s="101"/>
+      <c r="B26" s="21">
         <v>43232.4375</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="18">
         <v>5</v>
       </c>
-      <c r="E26" s="64" t="s">
+      <c r="E26" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="F26" s="29">
+      <c r="F26" s="24">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="G26" s="29">
+      <c r="G26" s="24">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="H26" s="61"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="15" customHeight="1" spans="1:11">
-      <c r="A27" s="59"/>
-      <c r="B27" s="26">
-        <v>43233.5833333333</v>
-      </c>
-      <c r="C27" s="29" t="s">
+      <c r="H26" s="51"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+    </row>
+    <row r="27" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A27" s="101"/>
+      <c r="B27" s="21">
+        <v>43233.583333333299</v>
+      </c>
+      <c r="C27" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="18">
         <v>7</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="F27" s="29">
+      <c r="F27" s="24">
         <f t="shared" si="3"/>
         <v>700</v>
       </c>
-      <c r="G27" s="29">
+      <c r="G27" s="24">
         <f t="shared" si="0"/>
         <v>560</v>
       </c>
-      <c r="H27" s="61"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A28" s="59"/>
-      <c r="B28" s="26">
+      <c r="H27" s="51"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+    </row>
+    <row r="28" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A28" s="101"/>
+      <c r="B28" s="21">
         <v>43240.4375</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="18">
         <v>4</v>
       </c>
-      <c r="E28" s="64" t="s">
+      <c r="E28" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="24">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="G28" s="29">
+      <c r="G28" s="24">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
-      <c r="H28" s="61"/>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A29" s="59"/>
-      <c r="B29" s="26">
-        <v>43240.5833333333</v>
-      </c>
-      <c r="C29" s="29" t="s">
+      <c r="H28" s="51"/>
+    </row>
+    <row r="29" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A29" s="101"/>
+      <c r="B29" s="21">
+        <v>43240.583333333299</v>
+      </c>
+      <c r="C29" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="18">
         <v>3</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="F29" s="29">
+      <c r="F29" s="24">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="G29" s="29">
+      <c r="G29" s="24">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="H29" s="61"/>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A30" s="59"/>
-      <c r="B30" s="26">
+      <c r="H29" s="51"/>
+    </row>
+    <row r="30" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A30" s="101"/>
+      <c r="B30" s="21">
         <v>43247.4375</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="18">
         <v>6</v>
       </c>
-      <c r="E30" s="63" t="s">
+      <c r="E30" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="F30" s="29">
+      <c r="F30" s="24">
         <f t="shared" si="3"/>
         <v>600</v>
       </c>
-      <c r="G30" s="29">
+      <c r="G30" s="24">
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
-      <c r="H30" s="61"/>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="15" customHeight="1" spans="1:8">
-      <c r="A31" s="59"/>
-      <c r="B31" s="26">
-        <v>43247.5833333333</v>
-      </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="23">
+      <c r="H30" s="51"/>
+    </row>
+    <row r="31" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="A31" s="101"/>
+      <c r="B31" s="21">
+        <v>43247.583333333299</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="18">
         <v>5</v>
       </c>
-      <c r="E31" s="60" t="s">
+      <c r="E31" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="24">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="G31" s="29">
+      <c r="G31" s="24">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="H31" s="61"/>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="17.25" spans="1:8">
-      <c r="A32" s="65" t="s">
+      <c r="H31" s="51"/>
+    </row>
+    <row r="32" spans="1:11" s="1" customFormat="1" ht="16.5">
+      <c r="A32" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="66"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="55">
+      <c r="B32" s="100"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="46">
         <f>SUM(D3:D31)</f>
         <v>173</v>
       </c>
-      <c r="E32" s="67"/>
-      <c r="F32" s="68">
+      <c r="E32" s="54"/>
+      <c r="F32" s="55">
         <f>SUM(F3:F31)</f>
         <v>15434</v>
       </c>
-      <c r="G32" s="68">
+      <c r="G32" s="55">
         <f>SUM(G3:G31)</f>
         <v>12347.2</v>
       </c>
-      <c r="H32" s="69"/>
-    </row>
-    <row r="33" s="2" customFormat="1" ht="21" customHeight="1" spans="5:7">
-      <c r="E33" s="70"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-    </row>
-    <row r="34" s="2" customFormat="1" ht="16.5" spans="5:7">
-      <c r="E34" s="72"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-    </row>
-    <row r="35" ht="16.5" spans="5:8">
-      <c r="E35" s="74"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="47"/>
-    </row>
-    <row r="36" ht="16.5" spans="5:8">
-      <c r="E36" s="74"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="47"/>
-    </row>
-    <row r="37" ht="16.5" spans="5:8">
-      <c r="E37" s="74"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="47"/>
-    </row>
-    <row r="38" ht="16.5" spans="5:8">
-      <c r="E38" s="74"/>
-      <c r="H38" s="49"/>
-    </row>
-    <row r="39" ht="16.5" spans="5:8">
-      <c r="E39" s="74"/>
-      <c r="H39" s="47"/>
-    </row>
-    <row r="40" ht="16.5" spans="8:8">
-      <c r="H40" s="47"/>
-    </row>
-    <row r="41" ht="16.5" spans="8:8">
-      <c r="H41" s="47"/>
-    </row>
-    <row r="42" ht="16.5" spans="8:8">
-      <c r="H42" s="47"/>
-    </row>
-    <row r="43" ht="16.5" spans="8:8">
-      <c r="H43" s="47"/>
-    </row>
-    <row r="44" ht="18" spans="8:8">
-      <c r="H44" s="50"/>
-    </row>
-    <row r="45" spans="8:8">
-      <c r="H45" s="51"/>
+      <c r="H32" s="56"/>
+    </row>
+    <row r="33" spans="5:8" s="2" customFormat="1" ht="21" customHeight="1">
+      <c r="E33" s="57"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+    </row>
+    <row r="34" spans="5:8" s="2" customFormat="1" ht="16.5">
+      <c r="E34" s="59"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+    </row>
+    <row r="35" spans="5:8" ht="16.5">
+      <c r="E35" s="61"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="39"/>
+    </row>
+    <row r="36" spans="5:8" ht="16.5">
+      <c r="E36" s="61"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="39"/>
+    </row>
+    <row r="37" spans="5:8" ht="16.5">
+      <c r="E37" s="61"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="39"/>
+    </row>
+    <row r="38" spans="5:8" ht="16.5">
+      <c r="E38" s="61"/>
+      <c r="H38" s="41"/>
+    </row>
+    <row r="39" spans="5:8" ht="16.5">
+      <c r="E39" s="61"/>
+      <c r="H39" s="39"/>
+    </row>
+    <row r="40" spans="5:8" ht="16.5">
+      <c r="H40" s="39"/>
+    </row>
+    <row r="41" spans="5:8" ht="16.5">
+      <c r="H41" s="39"/>
+    </row>
+    <row r="42" spans="5:8" ht="16.5">
+      <c r="H42" s="39"/>
+    </row>
+    <row r="43" spans="5:8" ht="16.5">
+      <c r="H43" s="39"/>
+    </row>
+    <row r="44" spans="5:8" ht="18">
+      <c r="H44" s="42"/>
+    </row>
+    <row r="45" spans="5:8">
+      <c r="H45" s="43"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H33">
@@ -4965,251 +4347,226 @@
     <mergeCell ref="A13:A23"/>
     <mergeCell ref="A24:A31"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="21.125" customWidth="1"/>
-    <col min="4" max="4" width="5.4" customWidth="1"/>
+    <col min="4" max="4" width="5.375" customWidth="1"/>
     <col min="5" max="5" width="60" style="3" customWidth="1"/>
     <col min="6" max="6" width="7.25" style="4" customWidth="1"/>
-    <col min="7" max="7" width="6.46666666666667" style="5" customWidth="1"/>
+    <col min="7" max="7" width="6.5" style="5" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1">
+      <c r="A1" s="96" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="7"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="48" customHeight="1" spans="1:8">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="97"/>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="48" customHeight="1">
+      <c r="A2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="19" customHeight="1" spans="1:8">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A3" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="11">
         <v>43226.375</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="13">
         <v>7</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="12">
         <f>D3*100</f>
         <v>700</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="15">
         <f>F3*0.8</f>
         <v>560</v>
       </c>
-      <c r="H3" s="20"/>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22">
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="16.5">
+      <c r="A4" s="105"/>
+      <c r="B4" s="17">
         <v>43233.375</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="18">
         <v>4</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="18">
         <f>D4*100</f>
         <v>400</v>
       </c>
-      <c r="G4" s="23">
+      <c r="G4" s="18">
         <f>F4*0.8</f>
         <v>320</v>
       </c>
-      <c r="H4" s="25"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="21" customHeight="1" spans="1:8">
-      <c r="A5" s="21"/>
-      <c r="B5" s="26">
-        <v>43240.3541666667</v>
-      </c>
-      <c r="C5" s="27" t="s">
+      <c r="H4" s="20"/>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1">
+      <c r="A5" s="105"/>
+      <c r="B5" s="21">
+        <v>43240.354166666701</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="18">
         <v>6</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="24">
         <f>D5*100</f>
         <v>600</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="25">
         <f>F5*0.8</f>
         <v>480</v>
       </c>
-      <c r="H5" s="31"/>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="18" spans="1:8">
-      <c r="A6" s="32"/>
-      <c r="B6" s="33">
-        <v>43247.3541666667</v>
-      </c>
-      <c r="C6" s="34" t="s">
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="1:8" s="2" customFormat="1" ht="17.25">
+      <c r="A6" s="106"/>
+      <c r="B6" s="27">
+        <v>43247.354166666701</v>
+      </c>
+      <c r="C6" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="29">
         <v>4</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="31">
         <f>D6*100</f>
         <v>400</v>
       </c>
-      <c r="G6" s="38">
+      <c r="G6" s="32">
         <f>F6*0.8</f>
         <v>320</v>
       </c>
-      <c r="H6" s="39"/>
-    </row>
-    <row r="7" customFormat="1" ht="17.25" spans="1:8">
-      <c r="A7" s="40" t="s">
+      <c r="H6" s="33"/>
+    </row>
+    <row r="7" spans="1:8" ht="16.5">
+      <c r="A7" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="42">
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="34">
         <f>SUM(D3:D6)</f>
         <v>21</v>
       </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="42">
+      <c r="E7" s="35"/>
+      <c r="F7" s="34">
         <f>SUM(F3:F6)</f>
         <v>2100</v>
       </c>
-      <c r="G7" s="42">
+      <c r="G7" s="34">
         <f>SUM(G3:G6)</f>
         <v>1680</v>
       </c>
-      <c r="H7" s="44"/>
-    </row>
-    <row r="8" customFormat="1" ht="16.5" spans="5:8">
-      <c r="E8" s="45"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="47"/>
-    </row>
-    <row r="9" customFormat="1" ht="16.5" spans="5:8">
-      <c r="E9" s="45"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="47"/>
-    </row>
-    <row r="10" customFormat="1" ht="17.25" spans="5:8">
-      <c r="E10" s="45"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="49"/>
-    </row>
-    <row r="11" customFormat="1" ht="16.5" spans="5:8">
-      <c r="E11" s="45"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="47"/>
-    </row>
-    <row r="12" customFormat="1" ht="16.5" spans="5:8">
-      <c r="E12" s="3"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="47"/>
-    </row>
-    <row r="13" customFormat="1" ht="16.5" spans="5:8">
-      <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="47"/>
-    </row>
-    <row r="14" customFormat="1" ht="16.5" spans="5:8">
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="47"/>
-    </row>
-    <row r="15" customFormat="1" ht="16.5" spans="5:8">
-      <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="47"/>
-    </row>
-    <row r="16" customFormat="1" ht="18" spans="5:8">
-      <c r="E16" s="3"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="50"/>
-    </row>
-    <row r="17" customFormat="1" spans="5:8">
-      <c r="E17" s="3"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="51"/>
-    </row>
-    <row r="24" ht="16.5" spans="1:3">
+      <c r="H7" s="36"/>
+    </row>
+    <row r="8" spans="1:8" ht="16.5">
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
+      <c r="H8" s="39"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.5">
+      <c r="E9" s="37"/>
+      <c r="F9" s="40"/>
+      <c r="H9" s="39"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.5">
+      <c r="E10" s="37"/>
+      <c r="H10" s="41"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.5">
+      <c r="E11" s="37"/>
+      <c r="H11" s="39"/>
+    </row>
+    <row r="12" spans="1:8" ht="16.5">
+      <c r="H12" s="39"/>
+    </row>
+    <row r="13" spans="1:8" ht="16.5">
+      <c r="H13" s="39"/>
+    </row>
+    <row r="14" spans="1:8" ht="16.5">
+      <c r="H14" s="39"/>
+    </row>
+    <row r="15" spans="1:8" ht="16.5">
+      <c r="H15" s="39"/>
+    </row>
+    <row r="16" spans="1:8" ht="18">
+      <c r="H16" s="42"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="H17" s="43"/>
+    </row>
+    <row r="24" spans="1:8" ht="16.5">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -5220,7 +4577,7 @@
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A3:A6"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/doc/alice/教练财务/2018年5月训练营业绩清单 - 副本.xlsx
+++ b/doc/alice/教练财务/2018年5月训练营业绩清单 - 副本.xlsx
@@ -15,7 +15,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'AKcross训练营（28）'!$A$2:$H$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">大热俱乐部!$A$1:$M$55</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -922,8 +922,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -1452,7 +1452,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1464,7 +1464,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1482,7 +1482,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1512,7 +1512,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1533,7 +1533,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1554,7 +1554,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1563,7 +1563,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -1602,7 +1602,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1647,7 +1647,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1677,7 +1677,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1746,7 +1746,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2062,8 +2062,8 @@
   <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I40" sqref="I40"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="H45" s="76"/>
     </row>
-    <row r="46" spans="1:8" s="64" customFormat="1" ht="15" customHeight="1">
+    <row r="46" spans="1:8" s="64" customFormat="1" ht="16.5" customHeight="1">
       <c r="A46" s="95" t="s">
         <v>71</v>
       </c>
@@ -3176,17 +3176,16 @@
         <v>72</v>
       </c>
       <c r="D46" s="73">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E46" s="75" t="s">
         <v>73</v>
       </c>
       <c r="F46" s="69">
         <f t="shared" si="2"/>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G46" s="70">
-        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="H46" s="79"/>
@@ -3391,12 +3390,12 @@
       <c r="C55" s="92"/>
       <c r="D55" s="34">
         <f>SUM(D2:D54)</f>
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E55" s="35"/>
       <c r="F55" s="34">
         <f>SUM(F10:F54)</f>
-        <v>26120</v>
+        <v>25920</v>
       </c>
       <c r="G55" s="80">
         <f>SUM(G2:G54)</f>
